--- a/Documentation/results.xlsx
+++ b/Documentation/results.xlsx
@@ -111,6 +111,369 @@
               <a:rPr sz="1200" b="1">
                 <a:latin typeface="Monospace"/>
               </a:rPr>
+              <a:t>Design Space</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr/>
+    </c:title>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:srgbClr val="008000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="http://www.gnumeric.org/ext/spreadsheetml">
+                <gnmx:gostyle dashType="auto"/>
+              </a:ext>
+            </a:extLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+            <c:size val="5"/>
+            <c:extLst>
+              <c:ext uri="http://www.gnumeric.org/ext/spreadsheetml">
+                <gnmx:gostyle markerSymbol="auto"/>
+              </c:ext>
+            </c:extLst>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>mmr_f.csv!$J$2:$J$10</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr wrap="none"/>
+              <a:p>
+                <a:r>
+                  <a:rPr sz="1000">
+                    <a:latin typeface="Monospace"/>
+                  </a:rPr>
+                  <a:t>Iteration</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr/>
+        </c:title>
+        <c:numFmt sourceLinked="1" formatCode="General"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800">
+                <a:latin typeface="Monospace"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="min"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr wrap="none"/>
+              <a:p>
+                <a:r>
+                  <a:rPr sz="1000">
+                    <a:latin typeface="Monospace"/>
+                  </a:rPr>
+                  <a:t>Performance</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr/>
+        </c:title>
+        <c:numFmt sourceLinked="1" formatCode="General"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800">
+                <a:latin typeface="Monospace"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="min"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:extLst>
+          <a:ext uri="http://www.gnumeric.org/ext/spreadsheetml">
+            <gnmx:gostyle pattern="solid" auto-pattern="1"/>
+          </a:ext>
+        </a:extLst>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend/>
+  </c:chart>
+  <c:spPr>
+    <a:extLst>
+      <a:ext uri="http://www.gnumeric.org/ext/spreadsheetml">
+        <gnmx:gostyle pattern="solid" auto-pattern="1"/>
+      </a:ext>
+    </a:extLst>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:gnmx="http://www.gnumeric.org/ext/spreadsheetml">
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr wrap="none"/>
+          <a:p>
+            <a:r>
+              <a:rPr sz="1200" b="1">
+                <a:latin typeface="Monospace"/>
+              </a:rPr>
+              <a:t>Design Space</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr/>
+    </c:title>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:srgbClr val="008000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="http://www.gnumeric.org/ext/spreadsheetml">
+                <gnmx:gostyle dashType="auto"/>
+              </a:ext>
+            </a:extLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+            <c:size val="5"/>
+            <c:extLst>
+              <c:ext uri="http://www.gnumeric.org/ext/spreadsheetml">
+                <gnmx:gostyle markerSymbol="auto"/>
+              </c:ext>
+            </c:extLst>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>mmr_f.csv!$K$3:$K$129</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:srgbClr val="800000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="http://www.gnumeric.org/ext/spreadsheetml">
+                <gnmx:gostyle dashType="auto"/>
+              </a:ext>
+            </a:extLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+            <c:size val="5"/>
+            <c:extLst>
+              <c:ext uri="http://www.gnumeric.org/ext/spreadsheetml">
+                <gnmx:gostyle markerSymbol="auto"/>
+              </c:ext>
+            </c:extLst>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>mmr_f.csv!$L$3:$L$129</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="3"/>
+        <c:axId val="4"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="3"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr wrap="none"/>
+              <a:p>
+                <a:r>
+                  <a:rPr sz="1000">
+                    <a:latin typeface="Monospace"/>
+                  </a:rPr>
+                  <a:t>Iteration</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr/>
+        </c:title>
+        <c:numFmt sourceLinked="1" formatCode="General"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800">
+                <a:latin typeface="Monospace"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="4"/>
+        <c:crosses val="min"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="4"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr wrap="none"/>
+              <a:p>
+                <a:r>
+                  <a:rPr sz="1000">
+                    <a:latin typeface="Monospace"/>
+                  </a:rPr>
+                  <a:t>Performance</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr/>
+        </c:title>
+        <c:numFmt sourceLinked="1" formatCode="General"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800">
+                <a:latin typeface="Monospace"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="3"/>
+        <c:crosses val="min"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:extLst>
+          <a:ext uri="http://www.gnumeric.org/ext/spreadsheetml">
+            <gnmx:gostyle pattern="solid" auto-pattern="1"/>
+          </a:ext>
+        </a:extLst>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend/>
+  </c:chart>
+  <c:spPr>
+    <a:extLst>
+      <a:ext uri="http://www.gnumeric.org/ext/spreadsheetml">
+        <gnmx:gostyle pattern="solid" auto-pattern="1"/>
+      </a:ext>
+    </a:extLst>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:gnmx="http://www.gnumeric.org/ext/spreadsheetml">
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr wrap="none"/>
+          <a:p>
+            <a:r>
+              <a:rPr sz="1200" b="1">
+                <a:latin typeface="Monospace"/>
+              </a:rPr>
               <a:t>Normalized Latency Improvement</a:t>
             </a:r>
           </a:p>
@@ -154,11 +517,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="1"/>
-        <c:axId val="2"/>
+        <c:axId val="5"/>
+        <c:axId val="6"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1"/>
+        <c:axId val="5"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -196,11 +559,11 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2"/>
+        <c:crossAx val="6"/>
         <c:crosses val="min"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2"/>
+        <c:axId val="6"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -238,7 +601,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1"/>
+        <c:crossAx val="5"/>
         <c:crosses val="min"/>
       </c:valAx>
       <c:spPr>
@@ -267,12 +630,12 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:gnmx="http://www.gnumeric.org/ext/spreadsheetml">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>11067</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>309882</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5488196" cy="3926300"/>
+    <xdr:ext cx="6059446" cy="3935938"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="1" name="Chart 0"/>
@@ -290,6 +653,56 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>287747</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6097609" cy="4573996"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>11067</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5488196" cy="3926300"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -298,10 +711,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:X270"/>
+  <dimension ref="A1:Z270"/>
   <sheetViews>
-    <sheetView topLeftCell="A122" workbookViewId="0" tabSelected="1">
-      <selection activeCell="L144" sqref="L144"/>
+    <sheetView topLeftCell="A23" workbookViewId="0" tabSelected="1">
+      <selection activeCell="U72" sqref="U72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -315,7 +728,7 @@
     <col min="13" max="256" style="0" width="9.142307692307693"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="13.5">
+    <row r="1" spans="1:26" ht="13.5">
       <c r="A1" t="inlineStr">
         <is>
           <t>MAT MUL</t>
@@ -333,7 +746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="13.5">
+    <row r="2" spans="1:26" ht="13.5">
       <c r="A2">
         <v>7060608</v>
       </c>
@@ -364,7 +777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="13.5">
+    <row r="3" spans="1:26" ht="13.5">
       <c r="A3">
         <v>7342643</v>
       </c>
@@ -393,7 +806,7 @@
         <v>0.99953767914932967</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="13.5">
+    <row r="4" spans="1:26" ht="13.5">
       <c r="A4">
         <v>7332708</v>
       </c>
@@ -422,7 +835,7 @@
         <v>0.92039165602383988</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="13.5">
+    <row r="5" spans="1:26" ht="13.5">
       <c r="A5">
         <v>7624512</v>
       </c>
@@ -451,7 +864,7 @@
         <v>0.92000000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="13.5">
+    <row r="6" spans="1:26" ht="13.5">
       <c r="A6">
         <v>960608</v>
       </c>
@@ -480,7 +893,7 @@
         <v>0.99539594843462242</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="13.5">
+    <row r="7" spans="1:26" ht="13.5">
       <c r="A7">
         <v>998643</v>
       </c>
@@ -509,7 +922,7 @@
         <v>0.99493787390704092</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="13.5">
+    <row r="8" spans="1:26" ht="13.5">
       <c r="A8">
         <v>991108</v>
       </c>
@@ -538,7 +951,7 @@
         <v>0.91484184914841848</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="13.5">
+    <row r="9" spans="1:26" ht="13.5">
       <c r="A9">
         <v>1029161</v>
       </c>
@@ -567,7 +980,7 @@
         <v>0.91445490113143701</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="13.5">
+    <row r="10" spans="1:26" ht="13.5">
       <c r="I10" t="inlineStr">
         <is>
           <t>MAX:</t>
@@ -586,7 +999,7 @@
         <v>0.99907578558225507</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="13.5">
+    <row r="11" spans="1:26" ht="13.5">
       <c r="K11" s="1">
         <f>($B$13)/B22</f>
         <v>1.0059600315104276</v>
@@ -596,7 +1009,7 @@
         <v>0.99861431870669748</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="13.5">
+    <row r="12" spans="1:26" ht="13.5">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -609,7 +1022,7 @@
         <v>0.91960867715865591</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="13.5">
+    <row r="13" spans="1:26" ht="13.5">
       <c r="A13" s="1">
         <v>776408</v>
       </c>
@@ -631,7 +1044,7 @@
         <v>0.91921768707482998</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="13.5">
+    <row r="14" spans="1:26" ht="13.5">
       <c r="A14" s="1">
         <v>776008</v>
       </c>
@@ -653,7 +1066,7 @@
         <v>0.99448022079116838</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="13.5">
+    <row r="15" spans="1:26" ht="13.5">
       <c r="A15" s="1">
         <v>728408</v>
       </c>
@@ -675,7 +1088,7 @@
         <v>0.99402298850574711</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="13.5">
+    <row r="16" spans="1:26" ht="13.5">
       <c r="A16" s="1">
         <v>728008</v>
       </c>
@@ -697,7 +1110,7 @@
         <v>0.91406828030863541</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="13.5">
+    <row r="17" spans="1:26" ht="13.5">
       <c r="A17" s="1">
         <v>763088</v>
       </c>
@@ -719,7 +1132,7 @@
         <v>0.91368198626518748</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="13.5">
+    <row r="18" spans="1:26" ht="13.5">
       <c r="A18" s="1">
         <v>762688</v>
       </c>
@@ -741,7 +1154,7 @@
         <v>0.66464281597048769</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="13.5">
+    <row r="19" spans="1:26" ht="13.5">
       <c r="A19" s="1">
         <v>715088</v>
       </c>
@@ -763,7 +1176,7 @@
         <v>0.66443855403173135</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="13.5">
+    <row r="20" spans="1:26" ht="13.5">
       <c r="A20" s="1">
         <v>714688</v>
       </c>
@@ -785,7 +1198,7 @@
         <v>0.62851121043642577</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="13.5">
+    <row r="21" spans="1:26" ht="13.5">
       <c r="A21" s="1">
         <v>772208</v>
       </c>
@@ -807,7 +1220,7 @@
         <v>0.62832855015076106</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="13.5">
+    <row r="22" spans="1:26" ht="13.5">
       <c r="A22" s="1">
         <v>771808</v>
       </c>
@@ -829,7 +1242,7 @@
         <v>0.66260583074742363</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="13.5">
+    <row r="23" spans="1:26" ht="13.5">
       <c r="A23" s="1">
         <v>721808</v>
       </c>
@@ -851,7 +1264,7 @@
         <v>0.66240281873539886</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="13.5">
+    <row r="24" spans="1:26" ht="13.5">
       <c r="A24" s="1">
         <v>721408</v>
       </c>
@@ -873,7 +1286,7 @@
         <v>0.62591828610719069</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="13.5">
+    <row r="25" spans="1:26" ht="13.5">
       <c r="A25" s="1">
         <v>723008</v>
       </c>
@@ -895,7 +1308,7 @@
         <v>0.62573712962627981</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="13.5">
+    <row r="26" spans="1:26" ht="13.5">
       <c r="A26" s="1">
         <v>722608</v>
       </c>
@@ -917,7 +1330,7 @@
         <v>0.66423441760436264</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="13.5">
+    <row r="27" spans="1:26" ht="13.5">
       <c r="A27" s="1">
         <v>711488</v>
       </c>
@@ -939,7 +1352,7 @@
         <v>0.66403040657273393</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="13.5">
+    <row r="28" spans="1:26" ht="13.5">
       <c r="A28" s="1">
         <v>711088</v>
       </c>
@@ -961,7 +1374,7 @@
         <v>0.62814599600508447</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="13.5">
+    <row r="29" spans="1:26" ht="13.5">
       <c r="A29" s="1">
         <v>482408</v>
       </c>
@@ -983,7 +1396,7 @@
         <v>0.62796354790690923</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="13.5">
+    <row r="30" spans="1:26" ht="13.5">
       <c r="A30" s="1">
         <v>482008</v>
       </c>
@@ -1005,7 +1418,7 @@
         <v>0.66219993108465103</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="13.5">
+    <row r="31" spans="1:26" ht="13.5">
       <c r="A31" s="1">
         <v>434408</v>
       </c>
@@ -1027,7 +1440,7 @@
         <v>0.66199716768094308</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="13.5">
+    <row r="32" spans="1:26" ht="13.5">
       <c r="A32" s="1">
         <v>434008</v>
       </c>
@@ -1049,7 +1462,7 @@
         <v>0.62555607797750368</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="13.5">
+    <row r="33" spans="1:26" ht="13.5">
       <c r="A33" s="1">
         <v>479288</v>
       </c>
@@ -1071,7 +1484,7 @@
         <v>0.62537513106989184</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="13.5">
+    <row r="34" spans="1:26" ht="13.5">
       <c r="A34" s="1">
         <v>478888</v>
       </c>
@@ -1093,7 +1506,7 @@
         <v>1.7389905489644077</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="13.5">
+    <row r="35" spans="1:26" ht="13.5">
       <c r="A35" s="1">
         <v>431288</v>
       </c>
@@ -1115,7 +1528,7 @@
         <v>1.7375929274663451</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="13.5">
+    <row r="36" spans="1:26" ht="13.5">
       <c r="A36" s="1">
         <v>430888</v>
       </c>
@@ -1137,7 +1550,7 @@
         <v>1.5116238419856669</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="13.5">
+    <row r="37" spans="1:26" ht="13.5">
       <c r="A37" s="1">
         <v>478808</v>
       </c>
@@ -1159,7 +1572,7 @@
         <v>1.5105676855895196</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="13.5">
+    <row r="38" spans="1:26" ht="13.5">
       <c r="A38" s="1">
         <v>478408</v>
       </c>
@@ -1181,7 +1594,7 @@
         <v>1.7251147017753841</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="13.5">
+    <row r="39" spans="1:26" ht="13.5">
       <c r="A39" s="1">
         <v>427808</v>
       </c>
@@ -1203,7 +1616,7 @@
         <v>1.7237392864261512</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="13.5">
+    <row r="40" spans="1:26" ht="13.5">
       <c r="A40" s="1">
         <v>427408</v>
       </c>
@@ -1225,7 +1638,7 @@
         <v>1.496711664935964</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="13.5">
+    <row r="41" spans="1:26" ht="13.5">
       <c r="A41" s="1">
         <v>475088</v>
       </c>
@@ -1247,7 +1660,7 @@
         <v>1.4956762365963334</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="13.5">
+    <row r="42" spans="1:26" ht="13.5">
       <c r="A42" s="1">
         <v>474688</v>
       </c>
@@ -1269,7 +1682,7 @@
         <v>1.7361975506926319</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="13.5">
+    <row r="43" spans="1:26" ht="13.5">
       <c r="A43" s="1">
         <v>425168</v>
       </c>
@@ -1291,7 +1704,7 @@
         <v>1.7348044132397191</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="13.5">
+    <row r="44" spans="1:26" ht="13.5">
       <c r="A44" s="1">
         <v>420688</v>
       </c>
@@ -1313,7 +1726,7 @@
         <v>1.5095130040146623</v>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="13.5">
+    <row r="45" spans="1:26" ht="13.5">
       <c r="A45" s="1">
         <v>776033</v>
       </c>
@@ -1335,7 +1748,7 @@
         <v>1.5084597941740798</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="13.5">
+    <row r="46" spans="1:26" ht="13.5">
       <c r="A46" s="1">
         <v>775633</v>
       </c>
@@ -1357,7 +1770,7 @@
         <v>1.7223660625373431</v>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="13.5">
+    <row r="47" spans="1:26" ht="13.5">
       <c r="A47" s="1">
         <v>728033</v>
       </c>
@@ -1379,7 +1792,7 @@
         <v>1.7209950248756218</v>
       </c>
     </row>
-    <row r="48" spans="1:24" ht="13.5">
+    <row r="48" spans="1:26" ht="13.5">
       <c r="A48" s="1">
         <v>727633</v>
       </c>
@@ -1401,7 +1814,7 @@
         <v>1.4946422398893882</v>
       </c>
     </row>
-    <row r="49" spans="1:24" ht="13.5">
+    <row r="49" spans="1:26" ht="13.5">
       <c r="A49" s="1">
         <v>762713</v>
       </c>
@@ -1423,7 +1836,7 @@
         <v>1.4936096718480139</v>
       </c>
     </row>
-    <row r="50" spans="1:24" ht="13.5">
+    <row r="50" spans="1:26" ht="13.5">
       <c r="A50" s="1">
         <v>762313</v>
       </c>
@@ -1445,7 +1858,7 @@
         <v>1.2126481104956881</v>
       </c>
     </row>
-    <row r="51" spans="1:24" ht="13.5">
+    <row r="51" spans="1:26" ht="13.5">
       <c r="A51" s="1">
         <v>714713</v>
       </c>
@@ -1467,7 +1880,7 @@
         <v>1.2119683273771986</v>
       </c>
     </row>
-    <row r="52" spans="1:24" ht="13.5">
+    <row r="52" spans="1:26" ht="13.5">
       <c r="A52" s="1">
         <v>714313</v>
       </c>
@@ -1489,7 +1902,7 @@
         <v>1.0975315692620091</v>
       </c>
     </row>
-    <row r="53" spans="1:24" ht="13.5">
+    <row r="53" spans="1:26" ht="13.5">
       <c r="A53" s="1">
         <v>771833</v>
       </c>
@@ -1511,7 +1924,7 @@
         <v>1.0969746939810998</v>
       </c>
     </row>
-    <row r="54" spans="1:24" ht="13.5">
+    <row r="54" spans="1:26" ht="13.5">
       <c r="A54" s="1">
         <v>771433</v>
       </c>
@@ -1533,7 +1946,7 @@
         <v>1.2058844035417975</v>
       </c>
     </row>
-    <row r="55" spans="1:24" ht="13.5">
+    <row r="55" spans="1:26" ht="13.5">
       <c r="A55" s="1">
         <v>721433</v>
       </c>
@@ -1555,7 +1968,7 @@
         <v>1.2052121803358651</v>
       </c>
     </row>
-    <row r="56" spans="1:24" ht="13.5">
+    <row r="56" spans="1:26" ht="13.5">
       <c r="A56" s="1">
         <v>721033</v>
       </c>
@@ -1577,7 +1990,7 @@
         <v>1.0896490896490896</v>
       </c>
     </row>
-    <row r="57" spans="1:24" ht="13.5">
+    <row r="57" spans="1:26" ht="13.5">
       <c r="A57" s="1">
         <v>722633</v>
       </c>
@@ -1599,7 +2012,7 @@
         <v>1.0891001826081481</v>
       </c>
     </row>
-    <row r="58" spans="1:24" ht="13.5">
+    <row r="58" spans="1:26" ht="13.5">
       <c r="A58" s="1">
         <v>722233</v>
       </c>
@@ -1621,7 +2034,7 @@
         <v>1.2112893059738077</v>
       </c>
     </row>
-    <row r="59" spans="1:24" ht="13.5">
+    <row r="59" spans="1:26" ht="13.5">
       <c r="A59" s="1">
         <v>711113</v>
       </c>
@@ -1643,7 +2056,7 @@
         <v>1.2106110450059495</v>
       </c>
     </row>
-    <row r="60" spans="1:24" ht="13.5">
+    <row r="60" spans="1:26" ht="13.5">
       <c r="A60" s="1">
         <v>710713</v>
       </c>
@@ -1665,7 +2078,7 @@
         <v>1.0964183835182251</v>
       </c>
     </row>
-    <row r="61" spans="1:24" ht="13.5">
+    <row r="61" spans="1:26" ht="13.5">
       <c r="A61" s="1">
         <v>482033</v>
       </c>
@@ -1687,7 +2100,7 @@
         <v>1.0958626370145093</v>
       </c>
     </row>
-    <row r="62" spans="1:24" ht="13.5">
+    <row r="62" spans="1:26" ht="13.5">
       <c r="A62" s="1">
         <v>481633</v>
       </c>
@@ -1709,7 +2122,7 @@
         <v>1.2045407061773103</v>
       </c>
     </row>
-    <row r="63" spans="1:24" ht="13.5">
+    <row r="63" spans="1:26" ht="13.5">
       <c r="A63" s="1">
         <v>434033</v>
       </c>
@@ -1731,7 +2144,7 @@
         <v>1.2038699798148536</v>
       </c>
     </row>
-    <row r="64" spans="1:24" ht="13.5">
+    <row r="64" spans="1:26" ht="13.5">
       <c r="A64" s="1">
         <v>433633</v>
       </c>
@@ -1753,7 +2166,7 @@
         <v>1.0885518283088929</v>
       </c>
     </row>
-    <row r="65" spans="1:24" ht="13.5">
+    <row r="65" spans="1:26" ht="13.5">
       <c r="A65" s="1">
         <v>478913</v>
       </c>
@@ -1775,7 +2188,7 @@
         <v>1.0880040259168398</v>
       </c>
     </row>
-    <row r="66" spans="1:24" ht="13.5">
+    <row r="66" spans="1:26" ht="13.5">
       <c r="A66" s="1">
         <v>478513</v>
       </c>
@@ -1797,7 +2210,7 @@
         <v>0.99988437969707478</v>
       </c>
     </row>
-    <row r="67" spans="1:24" ht="13.5">
+    <row r="67" spans="1:26" ht="13.5">
       <c r="A67" s="1">
         <v>430913</v>
       </c>
@@ -1819,7 +2232,7 @@
         <v>0.99942216572287068</v>
       </c>
     </row>
-    <row r="68" spans="1:24" ht="13.5">
+    <row r="68" spans="1:26" ht="13.5">
       <c r="A68" s="1">
         <v>430513</v>
       </c>
@@ -1841,7 +2254,7 @@
         <v>0.92029371075875277</v>
       </c>
     </row>
-    <row r="69" spans="1:24" ht="13.5">
+    <row r="69" spans="1:26" ht="13.5">
       <c r="A69" s="1">
         <v>478433</v>
       </c>
@@ -1863,7 +2276,7 @@
         <v>0.9199021380704181</v>
       </c>
     </row>
-    <row r="70" spans="1:24" ht="13.5">
+    <row r="70" spans="1:26" ht="13.5">
       <c r="A70" s="1">
         <v>478033</v>
       </c>
@@ -1885,7 +2298,7 @@
         <v>0.99528139026355167</v>
       </c>
     </row>
-    <row r="71" spans="1:24" ht="13.5">
+    <row r="71" spans="1:26" ht="13.5">
       <c r="A71" s="1">
         <v>427433</v>
       </c>
@@ -1907,7 +2320,7 @@
         <v>0.99482342114344879</v>
       </c>
     </row>
-    <row r="72" spans="1:24" ht="13.5">
+    <row r="72" spans="1:26" ht="13.5">
       <c r="A72" s="1">
         <v>427033</v>
       </c>
@@ -1929,7 +2342,7 @@
         <v>0.9147450814470065</v>
       </c>
     </row>
-    <row r="73" spans="1:24" ht="13.5">
+    <row r="73" spans="1:26" ht="13.5">
       <c r="A73" s="1">
         <v>474713</v>
       </c>
@@ -1951,7 +2364,7 @@
         <v>0.91435821526749839</v>
       </c>
     </row>
-    <row r="74" spans="1:24" ht="13.5">
+    <row r="74" spans="1:26" ht="13.5">
       <c r="A74" s="1">
         <v>474313</v>
       </c>
@@ -1973,7 +2386,7 @@
         <v>0.99896037888414002</v>
       </c>
     </row>
-    <row r="75" spans="1:24" ht="13.5">
+    <row r="75" spans="1:26" ht="13.5">
       <c r="A75" s="1">
         <v>424793</v>
       </c>
@@ -1995,7 +2408,7 @@
         <v>0.99849901858907752</v>
       </c>
     </row>
-    <row r="76" spans="1:24" ht="13.5">
+    <row r="76" spans="1:26" ht="13.5">
       <c r="A76" s="1">
         <v>420313</v>
       </c>
@@ -2017,7 +2430,7 @@
         <v>0.91951089845826683</v>
       </c>
     </row>
-    <row r="77" spans="1:24" ht="13.5">
+    <row r="77" spans="1:26" ht="13.5">
       <c r="A77" s="1">
         <v>776374</v>
       </c>
@@ -2039,7 +2452,7 @@
         <v>0.91911999149750234</v>
       </c>
     </row>
-    <row r="78" spans="1:24" ht="13.5">
+    <row r="78" spans="1:26" ht="13.5">
       <c r="A78" s="1">
         <v>775974</v>
       </c>
@@ -2061,7 +2474,7 @@
         <v>0.9943658732896401</v>
       </c>
     </row>
-    <row r="79" spans="1:24" ht="13.5">
+    <row r="79" spans="1:26" ht="13.5">
       <c r="A79" s="1">
         <v>728374</v>
       </c>
@@ -2083,7 +2496,7 @@
         <v>0.99390874612113556</v>
       </c>
     </row>
-    <row r="80" spans="1:24" ht="13.5">
+    <row r="80" spans="1:26" ht="13.5">
       <c r="A80" s="1">
         <v>727974</v>
       </c>
@@ -2105,7 +2518,7 @@
         <v>0.91397167617839781</v>
       </c>
     </row>
-    <row r="81" spans="1:24" ht="13.5">
+    <row r="81" spans="1:26" ht="13.5">
       <c r="A81" s="1">
         <v>763054</v>
       </c>
@@ -2127,7 +2540,7 @@
         <v>0.9135854637650539</v>
       </c>
     </row>
-    <row r="82" spans="1:24" ht="13.5">
+    <row r="82" spans="1:26" ht="13.5">
       <c r="A82" s="1">
         <v>762654</v>
       </c>
@@ -2149,7 +2562,7 @@
         <v>0.66448960774520727</v>
       </c>
     </row>
-    <row r="83" spans="1:24" ht="13.5">
+    <row r="83" spans="1:26" ht="13.5">
       <c r="A83" s="1">
         <v>715054</v>
       </c>
@@ -2171,7 +2584,7 @@
         <v>0.66428543995083922</v>
       </c>
     </row>
-    <row r="84" spans="1:24" ht="13.5">
+    <row r="84" spans="1:26" ht="13.5">
       <c r="A84" s="1">
         <v>714654</v>
       </c>
@@ -2193,7 +2606,7 @@
         <v>0.62837420526793819</v>
       </c>
     </row>
-    <row r="85" spans="1:24" ht="13.5">
+    <row r="85" spans="1:26" ht="13.5">
       <c r="A85" s="1">
         <v>772174</v>
       </c>
@@ -2215,7 +2628,7 @@
         <v>0.62819162459593947</v>
       </c>
     </row>
-    <row r="86" spans="1:24" ht="13.5">
+    <row r="86" spans="1:26" ht="13.5">
       <c r="A86" s="1">
         <v>771774</v>
       </c>
@@ -2237,7 +2650,7 @@
         <v>0.66245356007506995</v>
       </c>
     </row>
-    <row r="87" spans="1:24" ht="13.5">
+    <row r="87" spans="1:26" ht="13.5">
       <c r="A87" s="1">
         <v>721774</v>
       </c>
@@ -2259,7 +2672,7 @@
         <v>0.66225064134471801</v>
       </c>
     </row>
-    <row r="88" spans="1:24" ht="13.5">
+    <row r="88" spans="1:26" ht="13.5">
       <c r="A88" s="1">
         <v>721374</v>
       </c>
@@ -2281,7 +2694,7 @@
         <v>0.62578240891493908</v>
       </c>
     </row>
-    <row r="89" spans="1:24" ht="13.5">
+    <row r="89" spans="1:26" ht="13.5">
       <c r="A89" s="1">
         <v>722974</v>
       </c>
@@ -2303,7 +2716,7 @@
         <v>0.62560133106666183</v>
       </c>
     </row>
-    <row r="90" spans="1:24" ht="13.5">
+    <row r="90" spans="1:26" ht="13.5">
       <c r="A90" s="1">
         <v>722574</v>
       </c>
@@ -2325,7 +2738,7 @@
         <v>0.66408139758110962</v>
       </c>
     </row>
-    <row r="91" spans="1:24" ht="13.5">
+    <row r="91" spans="1:26" ht="13.5">
       <c r="A91" s="1">
         <v>711454</v>
       </c>
@@ -2347,7 +2760,7 @@
         <v>0.66387748052047746</v>
       </c>
     </row>
-    <row r="92" spans="1:24" ht="13.5">
+    <row r="92" spans="1:26" ht="13.5">
       <c r="A92" s="1">
         <v>711054</v>
       </c>
@@ -2369,7 +2782,7 @@
         <v>0.62800914999455359</v>
       </c>
     </row>
-    <row r="93" spans="1:24" ht="13.5">
+    <row r="93" spans="1:26" ht="13.5">
       <c r="A93" s="1">
         <v>482374</v>
       </c>
@@ -2391,7 +2804,7 @@
         <v>0.6278267813713746</v>
       </c>
     </row>
-    <row r="94" spans="1:24" ht="13.5">
+    <row r="94" spans="1:26" ht="13.5">
       <c r="A94" s="1">
         <v>481974</v>
       </c>
@@ -2413,7 +2826,7 @@
         <v>0.66204784688995211</v>
       </c>
     </row>
-    <row r="95" spans="1:24" ht="13.5">
+    <row r="95" spans="1:26" ht="13.5">
       <c r="A95" s="1">
         <v>434374</v>
       </c>
@@ -2435,7 +2848,7 @@
         <v>0.66184517659664022</v>
       </c>
     </row>
-    <row r="96" spans="1:24" ht="13.5">
+    <row r="96" spans="1:26" ht="13.5">
       <c r="A96" s="1">
         <v>433974</v>
       </c>
@@ -2457,7 +2870,7 @@
         <v>0.62542035798228168</v>
       </c>
     </row>
-    <row r="97" spans="1:24" ht="13.5">
+    <row r="97" spans="1:26" ht="13.5">
       <c r="A97" s="1">
         <v>479254</v>
       </c>
@@ -2479,7 +2892,7 @@
         <v>0.62523948957090703</v>
       </c>
     </row>
-    <row r="98" spans="1:24" ht="13.5">
+    <row r="98" spans="1:26" ht="13.5">
       <c r="A98" s="1">
         <v>478854</v>
       </c>
@@ -2501,7 +2914,7 @@
         <v>1.7386409328508243</v>
       </c>
     </row>
-    <row r="99" spans="1:24" ht="13.5">
+    <row r="99" spans="1:26" ht="13.5">
       <c r="A99" s="1">
         <v>431254</v>
       </c>
@@ -2523,7 +2936,7 @@
         <v>1.7372438730413822</v>
       </c>
     </row>
-    <row r="100" spans="1:24" ht="13.5">
+    <row r="100" spans="1:26" ht="13.5">
       <c r="A100" s="1">
         <v>430854</v>
       </c>
@@ -2545,7 +2958,7 @@
         <v>1.5113596644529885</v>
       </c>
     </row>
-    <row r="101" spans="1:24" ht="13.5">
+    <row r="101" spans="1:26" ht="13.5">
       <c r="A101" s="1">
         <v>478774</v>
       </c>
@@ -2567,7 +2980,7 @@
         <v>1.5103038770520434</v>
       </c>
     </row>
-    <row r="102" spans="1:24" ht="13.5">
+    <row r="102" spans="1:26" ht="13.5">
       <c r="A102" s="1">
         <v>478374</v>
       </c>
@@ -2589,7 +3002,7 @@
         <v>1.724770642201835</v>
       </c>
     </row>
-    <row r="103" spans="1:24" ht="13.5">
+    <row r="103" spans="1:26" ht="13.5">
       <c r="A103" s="1">
         <v>427774</v>
       </c>
@@ -2611,7 +3024,7 @@
         <v>1.7233957752092468</v>
       </c>
     </row>
-    <row r="104" spans="1:24" ht="13.5">
+    <row r="104" spans="1:26" ht="13.5">
       <c r="A104" s="1">
         <v>427374</v>
       </c>
@@ -2633,7 +3046,7 @@
         <v>1.4964526734729191</v>
       </c>
     </row>
-    <row r="105" spans="1:24" ht="13.5">
+    <row r="105" spans="1:26" ht="13.5">
       <c r="A105" s="1">
         <v>475054</v>
       </c>
@@ -2655,7 +3068,7 @@
         <v>1.4954176033200761</v>
       </c>
     </row>
-    <row r="106" spans="1:24" ht="13.5">
+    <row r="106" spans="1:26" ht="13.5">
       <c r="A106" s="1">
         <v>474654</v>
       </c>
@@ -2677,7 +3090,7 @@
         <v>1.7358490566037736</v>
       </c>
     </row>
-    <row r="107" spans="1:24" ht="13.5">
+    <row r="107" spans="1:26" ht="13.5">
       <c r="A107" s="1">
         <v>425134</v>
       </c>
@@ -2699,7 +3112,7 @@
         <v>1.7344564781387886</v>
       </c>
     </row>
-    <row r="108" spans="1:24" ht="13.5">
+    <row r="108" spans="1:26" ht="13.5">
       <c r="A108" s="1">
         <v>420654</v>
       </c>
@@ -2721,7 +3134,7 @@
         <v>1.5092495636998255</v>
       </c>
     </row>
-    <row r="109" spans="1:24" ht="13.5">
+    <row r="109" spans="1:26" ht="13.5">
       <c r="A109" s="1">
         <v>775999</v>
       </c>
@@ -2743,7 +3156,7 @@
         <v>1.5081967213114753</v>
       </c>
     </row>
-    <row r="110" spans="1:24" ht="13.5">
+    <row r="110" spans="1:26" ht="13.5">
       <c r="A110" s="1">
         <v>775599</v>
       </c>
@@ -2765,7 +3178,7 @@
         <v>1.7220230983671845</v>
       </c>
     </row>
-    <row r="111" spans="1:24" ht="13.5">
+    <row r="111" spans="1:26" ht="13.5">
       <c r="A111" s="1">
         <v>727999</v>
       </c>
@@ -2787,7 +3200,7 @@
         <v>1.7206526064464782</v>
       </c>
     </row>
-    <row r="112" spans="1:24" ht="13.5">
+    <row r="112" spans="1:26" ht="13.5">
       <c r="A112" s="1">
         <v>727599</v>
       </c>
@@ -2809,7 +3222,7 @@
         <v>1.49438396405737</v>
       </c>
     </row>
-    <row r="113" spans="1:24" ht="13.5">
+    <row r="113" spans="1:26" ht="13.5">
       <c r="A113" s="1">
         <v>762679</v>
       </c>
@@ -2831,7 +3244,7 @@
         <v>1.4933517527197375</v>
       </c>
     </row>
-    <row r="114" spans="1:24" ht="13.5">
+    <row r="114" spans="1:26" ht="13.5">
       <c r="A114" s="1">
         <v>762279</v>
       </c>
@@ -2853,7 +3266,7 @@
         <v>1.2121382016959843</v>
       </c>
     </row>
-    <row r="115" spans="1:24" ht="13.5">
+    <row r="115" spans="1:26" ht="13.5">
       <c r="A115" s="1">
         <v>714679</v>
       </c>
@@ -2875,7 +3288,7 @@
         <v>1.2114589899838901</v>
       </c>
     </row>
-    <row r="116" spans="1:24" ht="13.5">
+    <row r="116" spans="1:26" ht="13.5">
       <c r="A116" s="1">
         <v>714279</v>
       </c>
@@ -2897,7 +3310,7 @@
         <v>1.0971138598160481</v>
       </c>
     </row>
-    <row r="117" spans="1:24" ht="13.5">
+    <row r="117" spans="1:26" ht="13.5">
       <c r="A117" s="1">
         <v>771799</v>
       </c>
@@ -2919,7 +3332,7 @@
         <v>1.0965574082292526</v>
       </c>
     </row>
-    <row r="118" spans="1:24" ht="13.5">
+    <row r="118" spans="1:26" ht="13.5">
       <c r="A118" s="1">
         <v>771399</v>
       </c>
@@ -2941,7 +3354,7 @@
         <v>1.205380165865217</v>
       </c>
     </row>
-    <row r="119" spans="1:24" ht="13.5">
+    <row r="119" spans="1:26" ht="13.5">
       <c r="A119" s="1">
         <v>721399</v>
       </c>
@@ -2963,7 +3376,7 @@
         <v>1.2047085045622346</v>
       </c>
     </row>
-    <row r="120" spans="1:24" ht="13.5">
+    <row r="120" spans="1:26" ht="13.5">
       <c r="A120" s="1">
         <v>720999</v>
       </c>
@@ -2985,7 +3398,7 @@
         <v>1.0892373575162164</v>
       </c>
     </row>
-    <row r="121" spans="1:24" ht="13.5">
+    <row r="121" spans="1:26" ht="13.5">
       <c r="A121" s="1">
         <v>722599</v>
       </c>
@@ -3007,7 +3420,7 @@
         <v>1.0886888651098383</v>
       </c>
     </row>
-    <row r="122" spans="1:24" ht="13.5">
+    <row r="122" spans="1:26" ht="13.5">
       <c r="A122" s="1">
         <v>722199</v>
       </c>
@@ -3029,7 +3442,7 @@
         <v>1.2107805390269513</v>
       </c>
     </row>
-    <row r="123" spans="1:24" ht="13.5">
+    <row r="123" spans="1:26" ht="13.5">
       <c r="A123" s="1">
         <v>711079</v>
       </c>
@@ -3051,7 +3464,7 @@
         <v>1.2101028475477507</v>
       </c>
     </row>
-    <row r="124" spans="1:24" ht="13.5">
+    <row r="124" spans="1:26" ht="13.5">
       <c r="A124" s="1">
         <v>710679</v>
       </c>
@@ -3073,7 +3486,7 @@
         <v>1.0960015208161713</v>
       </c>
     </row>
-    <row r="125" spans="1:24" ht="13.5">
+    <row r="125" spans="1:26" ht="13.5">
       <c r="A125" s="1">
         <v>481999</v>
       </c>
@@ -3095,7 +3508,7 @@
         <v>1.0954461967192348</v>
       </c>
     </row>
-    <row r="126" spans="1:24" ht="13.5">
+    <row r="126" spans="1:26" ht="13.5">
       <c r="A126" s="1">
         <v>481599</v>
       </c>
@@ -3117,7 +3530,7 @@
         <v>1.204037591367908</v>
       </c>
     </row>
-    <row r="127" spans="1:24" ht="13.5">
+    <row r="127" spans="1:26" ht="13.5">
       <c r="A127" s="1">
         <v>433999</v>
       </c>
@@ -3139,7 +3552,7 @@
         <v>1.2033674250330482</v>
       </c>
     </row>
-    <row r="128" spans="1:24" ht="13.5">
+    <row r="128" spans="1:26" ht="13.5">
       <c r="A128" s="1">
         <v>433599</v>
       </c>
@@ -3161,7 +3574,7 @@
         <v>1.0881409248191256</v>
       </c>
     </row>
-    <row r="129" spans="1:24" ht="13.5">
+    <row r="129" spans="1:26" ht="13.5">
       <c r="A129" s="1">
         <v>478879</v>
       </c>
@@ -3183,7 +3596,7 @@
         <v>1.0875935358108533</v>
       </c>
     </row>
-    <row r="130" spans="1:24" ht="13.5">
+    <row r="130" spans="1:26" ht="13.5">
       <c r="A130" s="1">
         <v>478479</v>
       </c>
@@ -3197,7 +3610,7 @@
         <v>478480</v>
       </c>
     </row>
-    <row r="131" spans="1:24" ht="13.5">
+    <row r="131" spans="1:26" ht="13.5">
       <c r="A131" s="1">
         <v>430879</v>
       </c>
@@ -3211,7 +3624,7 @@
         <v>430880</v>
       </c>
     </row>
-    <row r="132" spans="1:24" ht="13.5">
+    <row r="132" spans="1:26" ht="13.5">
       <c r="A132" s="1">
         <v>430479</v>
       </c>
@@ -3225,7 +3638,7 @@
         <v>430480</v>
       </c>
     </row>
-    <row r="133" spans="1:24" ht="13.5">
+    <row r="133" spans="1:26" ht="13.5">
       <c r="A133" s="1">
         <v>478399</v>
       </c>
@@ -3239,7 +3652,7 @@
         <v>478400</v>
       </c>
     </row>
-    <row r="134" spans="1:24" ht="13.5">
+    <row r="134" spans="1:26" ht="13.5">
       <c r="A134" s="1">
         <v>477999</v>
       </c>
@@ -3253,7 +3666,7 @@
         <v>478000</v>
       </c>
     </row>
-    <row r="135" spans="1:24" ht="13.5">
+    <row r="135" spans="1:26" ht="13.5">
       <c r="A135" s="1">
         <v>427399</v>
       </c>
@@ -3267,7 +3680,7 @@
         <v>427400</v>
       </c>
     </row>
-    <row r="136" spans="1:24" ht="13.5">
+    <row r="136" spans="1:26" ht="13.5">
       <c r="A136" s="1">
         <v>426999</v>
       </c>
@@ -3281,7 +3694,7 @@
         <v>427000</v>
       </c>
     </row>
-    <row r="137" spans="1:24" ht="13.5">
+    <row r="137" spans="1:26" ht="13.5">
       <c r="A137" s="1">
         <v>474679</v>
       </c>
@@ -3295,7 +3708,7 @@
         <v>474680</v>
       </c>
     </row>
-    <row r="138" spans="1:24" ht="13.5">
+    <row r="138" spans="1:26" ht="13.5">
       <c r="A138" s="1">
         <v>474279</v>
       </c>
@@ -3309,7 +3722,7 @@
         <v>474280</v>
       </c>
     </row>
-    <row r="139" spans="1:24" ht="13.5">
+    <row r="139" spans="1:26" ht="13.5">
       <c r="A139" s="1">
         <v>424759</v>
       </c>
@@ -3332,7 +3745,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:24" ht="13.5">
+    <row r="140" spans="1:26" ht="13.5">
       <c r="A140" s="1">
         <v>420279</v>
       </c>
@@ -3361,12 +3774,12 @@
         <v>1.7389905489644077</v>
       </c>
     </row>
-    <row r="142" spans="1:24" ht="13.5">
+    <row r="142" spans="1:26" ht="13.5">
       <c r="A142" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:24" ht="13.5">
+    <row r="143" spans="1:26" ht="13.5">
       <c r="A143" s="1">
         <v>17296</v>
       </c>
@@ -3383,7 +3796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:24" ht="13.5">
+    <row r="144" spans="1:26" ht="13.5">
       <c r="A144" s="1">
         <v>17304</v>
       </c>
@@ -3408,7 +3821,7 @@
         <v>15.23</v>
       </c>
     </row>
-    <row r="145" spans="1:24" ht="13.5">
+    <row r="145" spans="1:26" ht="13.5">
       <c r="A145" s="1">
         <v>18792</v>
       </c>
@@ -3425,7 +3838,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:24" ht="13.5">
+    <row r="146" spans="1:26" ht="13.5">
       <c r="A146" s="1">
         <v>18800</v>
       </c>
@@ -3442,7 +3855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:24" ht="13.5">
+    <row r="147" spans="1:26" ht="13.5">
       <c r="A147" s="1">
         <v>17376</v>
       </c>
@@ -3459,7 +3872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:24" ht="13.5">
+    <row r="148" spans="1:26" ht="13.5">
       <c r="A148" s="1">
         <v>17384</v>
       </c>
@@ -3479,7 +3892,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="149" spans="1:24" ht="13.5">
+    <row r="149" spans="1:26" ht="13.5">
       <c r="A149" s="1">
         <v>18906</v>
       </c>
@@ -3496,7 +3909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:24" ht="13.5">
+    <row r="150" spans="1:26" ht="13.5">
       <c r="A150" s="1">
         <v>18914</v>
       </c>
@@ -3513,7 +3926,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:24" ht="13.5">
+    <row r="151" spans="1:26" ht="13.5">
       <c r="A151" s="1">
         <v>17312</v>
       </c>
@@ -3530,7 +3943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:24" ht="13.5">
+    <row r="152" spans="1:26" ht="13.5">
       <c r="A152" s="1">
         <v>17320</v>
       </c>
@@ -3547,7 +3960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:24" ht="13.5">
+    <row r="153" spans="1:26" ht="13.5">
       <c r="A153" s="1">
         <v>18808</v>
       </c>
@@ -3564,7 +3977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:24" ht="13.5">
+    <row r="154" spans="1:26" ht="13.5">
       <c r="A154" s="1">
         <v>18816</v>
       </c>
@@ -3581,7 +3994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:24" ht="13.5">
+    <row r="155" spans="1:26" ht="13.5">
       <c r="A155" s="1">
         <v>17392</v>
       </c>
@@ -3598,7 +4011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:24" ht="13.5">
+    <row r="156" spans="1:26" ht="13.5">
       <c r="A156" s="1">
         <v>17400</v>
       </c>
@@ -3615,7 +4028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:24" ht="13.5">
+    <row r="157" spans="1:26" ht="13.5">
       <c r="A157" s="1">
         <v>18922</v>
       </c>
@@ -3632,7 +4045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:24" ht="13.5">
+    <row r="158" spans="1:26" ht="13.5">
       <c r="A158" s="1">
         <v>18930</v>
       </c>
@@ -3649,7 +4062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:24" ht="13.5">
+    <row r="159" spans="1:26" ht="13.5">
       <c r="A159" s="1">
         <v>26023</v>
       </c>
@@ -3666,7 +4079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:24" ht="13.5">
+    <row r="160" spans="1:26" ht="13.5">
       <c r="A160" s="1">
         <v>26031</v>
       </c>
@@ -3683,7 +4096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:24" ht="13.5">
+    <row r="161" spans="1:26" ht="13.5">
       <c r="A161" s="1">
         <v>27519</v>
       </c>
@@ -3700,7 +4113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:24" ht="13.5">
+    <row r="162" spans="1:26" ht="13.5">
       <c r="A162" s="1">
         <v>27527</v>
       </c>
@@ -3717,7 +4130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:24" ht="13.5">
+    <row r="163" spans="1:26" ht="13.5">
       <c r="A163" s="1">
         <v>26103</v>
       </c>
@@ -3734,7 +4147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:24" ht="13.5">
+    <row r="164" spans="1:26" ht="13.5">
       <c r="A164" s="1">
         <v>26111</v>
       </c>
@@ -3751,7 +4164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:24" ht="13.5">
+    <row r="165" spans="1:26" ht="13.5">
       <c r="A165" s="1">
         <v>27633</v>
       </c>
@@ -3768,7 +4181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:24" ht="13.5">
+    <row r="166" spans="1:26" ht="13.5">
       <c r="A166" s="1">
         <v>27641</v>
       </c>
@@ -3785,7 +4198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:24" ht="13.5">
+    <row r="167" spans="1:26" ht="13.5">
       <c r="A167" s="1">
         <v>26039</v>
       </c>
@@ -3802,7 +4215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:24" ht="13.5">
+    <row r="168" spans="1:26" ht="13.5">
       <c r="A168" s="1">
         <v>26047</v>
       </c>
@@ -3819,7 +4232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:24" ht="13.5">
+    <row r="169" spans="1:26" ht="13.5">
       <c r="A169" s="1">
         <v>27535</v>
       </c>
@@ -3836,7 +4249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:24" ht="13.5">
+    <row r="170" spans="1:26" ht="13.5">
       <c r="A170" s="1">
         <v>27543</v>
       </c>
@@ -3853,7 +4266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:24" ht="13.5">
+    <row r="171" spans="1:26" ht="13.5">
       <c r="A171" s="1">
         <v>26119</v>
       </c>
@@ -3870,7 +4283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:24" ht="13.5">
+    <row r="172" spans="1:26" ht="13.5">
       <c r="A172" s="1">
         <v>26127</v>
       </c>
@@ -3887,7 +4300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:24" ht="13.5">
+    <row r="173" spans="1:26" ht="13.5">
       <c r="A173" s="1">
         <v>27649</v>
       </c>
@@ -3904,7 +4317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:24" ht="13.5">
+    <row r="174" spans="1:26" ht="13.5">
       <c r="A174" s="1">
         <v>27657</v>
       </c>
@@ -3921,7 +4334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:24" ht="13.5">
+    <row r="175" spans="1:26" ht="13.5">
       <c r="A175" s="1">
         <v>9946</v>
       </c>
@@ -3938,7 +4351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:24" ht="13.5">
+    <row r="176" spans="1:26" ht="13.5">
       <c r="A176" s="1">
         <v>9954</v>
       </c>
@@ -3955,7 +4368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:24" ht="13.5">
+    <row r="177" spans="1:26" ht="13.5">
       <c r="A177" s="1">
         <v>11442</v>
       </c>
@@ -3972,7 +4385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:24" ht="13.5">
+    <row r="178" spans="1:26" ht="13.5">
       <c r="A178" s="1">
         <v>11450</v>
       </c>
@@ -3989,7 +4402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:24" ht="13.5">
+    <row r="179" spans="1:26" ht="13.5">
       <c r="A179" s="1">
         <v>10026</v>
       </c>
@@ -4006,7 +4419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:24" ht="13.5">
+    <row r="180" spans="1:26" ht="13.5">
       <c r="A180" s="1">
         <v>10034</v>
       </c>
@@ -4023,7 +4436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:24" ht="13.5">
+    <row r="181" spans="1:26" ht="13.5">
       <c r="A181" s="1">
         <v>11556</v>
       </c>
@@ -4040,7 +4453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:24" ht="13.5">
+    <row r="182" spans="1:26" ht="13.5">
       <c r="A182" s="1">
         <v>11564</v>
       </c>
@@ -4057,7 +4470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:24" ht="13.5">
+    <row r="183" spans="1:26" ht="13.5">
       <c r="A183" s="1">
         <v>9962</v>
       </c>
@@ -4074,7 +4487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:24" ht="13.5">
+    <row r="184" spans="1:26" ht="13.5">
       <c r="A184" s="1">
         <v>9970</v>
       </c>
@@ -4091,7 +4504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:24" ht="13.5">
+    <row r="185" spans="1:26" ht="13.5">
       <c r="A185" s="1">
         <v>11458</v>
       </c>
@@ -4108,7 +4521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:24" ht="13.5">
+    <row r="186" spans="1:26" ht="13.5">
       <c r="A186" s="1">
         <v>11466</v>
       </c>
@@ -4125,7 +4538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:24" ht="13.5">
+    <row r="187" spans="1:26" ht="13.5">
       <c r="A187" s="1">
         <v>10042</v>
       </c>
@@ -4142,7 +4555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:24" ht="13.5">
+    <row r="188" spans="1:26" ht="13.5">
       <c r="A188" s="1">
         <v>10050</v>
       </c>
@@ -4159,7 +4572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:24" ht="13.5">
+    <row r="189" spans="1:26" ht="13.5">
       <c r="A189" s="1">
         <v>11572</v>
       </c>
@@ -4176,7 +4589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:24" ht="13.5">
+    <row r="190" spans="1:26" ht="13.5">
       <c r="A190" s="1">
         <v>11580</v>
       </c>
@@ -4193,7 +4606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:24" ht="13.5">
+    <row r="191" spans="1:26" ht="13.5">
       <c r="A191" s="1">
         <v>14263</v>
       </c>
@@ -4210,7 +4623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:24" ht="13.5">
+    <row r="192" spans="1:26" ht="13.5">
       <c r="A192" s="1">
         <v>14271</v>
       </c>
@@ -4227,7 +4640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:24" ht="13.5">
+    <row r="193" spans="1:26" ht="13.5">
       <c r="A193" s="1">
         <v>15759</v>
       </c>
@@ -4244,7 +4657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:24" ht="13.5">
+    <row r="194" spans="1:26" ht="13.5">
       <c r="A194" s="1">
         <v>15767</v>
       </c>
@@ -4261,7 +4674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:24" ht="13.5">
+    <row r="195" spans="1:26" ht="13.5">
       <c r="A195" s="1">
         <v>14343</v>
       </c>
@@ -4278,7 +4691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:24" ht="13.5">
+    <row r="196" spans="1:26" ht="13.5">
       <c r="A196" s="1">
         <v>14351</v>
       </c>
@@ -4295,7 +4708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:24" ht="13.5">
+    <row r="197" spans="1:26" ht="13.5">
       <c r="A197" s="1">
         <v>15873</v>
       </c>
@@ -4312,7 +4725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:24" ht="13.5">
+    <row r="198" spans="1:26" ht="13.5">
       <c r="A198" s="1">
         <v>15881</v>
       </c>
@@ -4329,7 +4742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:24" ht="13.5">
+    <row r="199" spans="1:26" ht="13.5">
       <c r="A199" s="1">
         <v>14279</v>
       </c>
@@ -4346,7 +4759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:24" ht="13.5">
+    <row r="200" spans="1:26" ht="13.5">
       <c r="A200" s="1">
         <v>14287</v>
       </c>
@@ -4363,7 +4776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:24" ht="13.5">
+    <row r="201" spans="1:26" ht="13.5">
       <c r="A201" s="1">
         <v>15775</v>
       </c>
@@ -4380,7 +4793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:24" ht="13.5">
+    <row r="202" spans="1:26" ht="13.5">
       <c r="A202" s="1">
         <v>15783</v>
       </c>
@@ -4397,7 +4810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:24" ht="13.5">
+    <row r="203" spans="1:26" ht="13.5">
       <c r="A203" s="1">
         <v>14359</v>
       </c>
@@ -4414,7 +4827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:24" ht="13.5">
+    <row r="204" spans="1:26" ht="13.5">
       <c r="A204" s="1">
         <v>14367</v>
       </c>
@@ -4431,7 +4844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:24" ht="13.5">
+    <row r="205" spans="1:26" ht="13.5">
       <c r="A205" s="1">
         <v>15889</v>
       </c>
@@ -4448,7 +4861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:24" ht="13.5">
+    <row r="206" spans="1:26" ht="13.5">
       <c r="A206" s="1">
         <v>15897</v>
       </c>
@@ -4465,7 +4878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:24" ht="13.5">
+    <row r="207" spans="1:26" ht="13.5">
       <c r="A207" s="1">
         <v>17298</v>
       </c>
@@ -4482,7 +4895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:24" ht="13.5">
+    <row r="208" spans="1:26" ht="13.5">
       <c r="A208" s="1">
         <v>17306</v>
       </c>
@@ -4499,7 +4912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:24" ht="13.5">
+    <row r="209" spans="1:26" ht="13.5">
       <c r="A209" s="1">
         <v>18794</v>
       </c>
@@ -4516,7 +4929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:24" ht="13.5">
+    <row r="210" spans="1:26" ht="13.5">
       <c r="A210" s="1">
         <v>18802</v>
       </c>
@@ -4533,7 +4946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:24" ht="13.5">
+    <row r="211" spans="1:26" ht="13.5">
       <c r="A211" s="1">
         <v>17378</v>
       </c>
@@ -4550,7 +4963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:24" ht="13.5">
+    <row r="212" spans="1:26" ht="13.5">
       <c r="A212" s="1">
         <v>17386</v>
       </c>
@@ -4567,7 +4980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:24" ht="13.5">
+    <row r="213" spans="1:26" ht="13.5">
       <c r="A213" s="1">
         <v>18908</v>
       </c>
@@ -4584,7 +4997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:24" ht="13.5">
+    <row r="214" spans="1:26" ht="13.5">
       <c r="A214" s="1">
         <v>18916</v>
       </c>
@@ -4601,7 +5014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:24" ht="13.5">
+    <row r="215" spans="1:26" ht="13.5">
       <c r="A215" s="1">
         <v>17314</v>
       </c>
@@ -4618,7 +5031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:24" ht="13.5">
+    <row r="216" spans="1:26" ht="13.5">
       <c r="A216" s="1">
         <v>17322</v>
       </c>
@@ -4635,7 +5048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:24" ht="13.5">
+    <row r="217" spans="1:26" ht="13.5">
       <c r="A217" s="1">
         <v>18810</v>
       </c>
@@ -4652,7 +5065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:24" ht="13.5">
+    <row r="218" spans="1:26" ht="13.5">
       <c r="A218" s="1">
         <v>18818</v>
       </c>
@@ -4669,7 +5082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:24" ht="13.5">
+    <row r="219" spans="1:26" ht="13.5">
       <c r="A219" s="1">
         <v>17394</v>
       </c>
@@ -4686,7 +5099,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:24" ht="13.5">
+    <row r="220" spans="1:26" ht="13.5">
       <c r="A220" s="1">
         <v>17402</v>
       </c>
@@ -4703,7 +5116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:24" ht="13.5">
+    <row r="221" spans="1:26" ht="13.5">
       <c r="A221" s="1">
         <v>18924</v>
       </c>
@@ -4720,7 +5133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:24" ht="13.5">
+    <row r="222" spans="1:26" ht="13.5">
       <c r="A222" s="1">
         <v>18932</v>
       </c>
@@ -4737,7 +5150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:24" ht="13.5">
+    <row r="223" spans="1:26" ht="13.5">
       <c r="A223" s="1">
         <v>26029</v>
       </c>
@@ -4754,7 +5167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:24" ht="13.5">
+    <row r="224" spans="1:26" ht="13.5">
       <c r="A224" s="1">
         <v>26037</v>
       </c>
@@ -4771,7 +5184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="1:24" ht="13.5">
+    <row r="225" spans="1:26" ht="13.5">
       <c r="A225" s="1">
         <v>27525</v>
       </c>
@@ -4788,7 +5201,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:24" ht="13.5">
+    <row r="226" spans="1:26" ht="13.5">
       <c r="A226" s="1">
         <v>27533</v>
       </c>
@@ -4805,7 +5218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:24" ht="13.5">
+    <row r="227" spans="1:26" ht="13.5">
       <c r="A227" s="1">
         <v>26109</v>
       </c>
@@ -4822,7 +5235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:24" ht="13.5">
+    <row r="228" spans="1:26" ht="13.5">
       <c r="A228" s="1">
         <v>26117</v>
       </c>
@@ -4839,7 +5252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:24" ht="13.5">
+    <row r="229" spans="1:26" ht="13.5">
       <c r="A229" s="1">
         <v>27639</v>
       </c>
@@ -4856,7 +5269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:24" ht="13.5">
+    <row r="230" spans="1:26" ht="13.5">
       <c r="A230" s="1">
         <v>27647</v>
       </c>
@@ -4873,7 +5286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:24" ht="13.5">
+    <row r="231" spans="1:26" ht="13.5">
       <c r="A231" s="1">
         <v>26045</v>
       </c>
@@ -4890,7 +5303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:24" ht="13.5">
+    <row r="232" spans="1:26" ht="13.5">
       <c r="A232" s="1">
         <v>26053</v>
       </c>
@@ -4907,7 +5320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:24" ht="13.5">
+    <row r="233" spans="1:26" ht="13.5">
       <c r="A233" s="1">
         <v>27541</v>
       </c>
@@ -4924,7 +5337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:24" ht="13.5">
+    <row r="234" spans="1:26" ht="13.5">
       <c r="A234" s="1">
         <v>27549</v>
       </c>
@@ -4941,7 +5354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:24" ht="13.5">
+    <row r="235" spans="1:26" ht="13.5">
       <c r="A235" s="1">
         <v>26125</v>
       </c>
@@ -4958,7 +5371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:24" ht="13.5">
+    <row r="236" spans="1:26" ht="13.5">
       <c r="A236" s="1">
         <v>26133</v>
       </c>
@@ -4975,7 +5388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:24" ht="13.5">
+    <row r="237" spans="1:26" ht="13.5">
       <c r="A237" s="1">
         <v>27655</v>
       </c>
@@ -4992,7 +5405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:24" ht="13.5">
+    <row r="238" spans="1:26" ht="13.5">
       <c r="A238" s="1">
         <v>27663</v>
       </c>
@@ -5009,7 +5422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:24" ht="13.5">
+    <row r="239" spans="1:26" ht="13.5">
       <c r="A239" s="1">
         <v>9948</v>
       </c>
@@ -5026,7 +5439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:24" ht="13.5">
+    <row r="240" spans="1:26" ht="13.5">
       <c r="A240" s="1">
         <v>9956</v>
       </c>
@@ -5043,7 +5456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:24" ht="13.5">
+    <row r="241" spans="1:26" ht="13.5">
       <c r="A241" s="1">
         <v>11444</v>
       </c>
@@ -5060,7 +5473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:24" ht="13.5">
+    <row r="242" spans="1:26" ht="13.5">
       <c r="A242" s="1">
         <v>11452</v>
       </c>
@@ -5077,7 +5490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:24" ht="13.5">
+    <row r="243" spans="1:26" ht="13.5">
       <c r="A243" s="1">
         <v>10028</v>
       </c>
@@ -5094,7 +5507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:24" ht="13.5">
+    <row r="244" spans="1:26" ht="13.5">
       <c r="A244" s="1">
         <v>10036</v>
       </c>
@@ -5111,7 +5524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:24" ht="13.5">
+    <row r="245" spans="1:26" ht="13.5">
       <c r="A245" s="1">
         <v>11558</v>
       </c>
@@ -5128,7 +5541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:24" ht="13.5">
+    <row r="246" spans="1:26" ht="13.5">
       <c r="A246" s="1">
         <v>11566</v>
       </c>
@@ -5145,7 +5558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:24" ht="13.5">
+    <row r="247" spans="1:26" ht="13.5">
       <c r="A247" s="1">
         <v>9964</v>
       </c>
@@ -5162,7 +5575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:24" ht="13.5">
+    <row r="248" spans="1:26" ht="13.5">
       <c r="A248" s="1">
         <v>9972</v>
       </c>
@@ -5179,7 +5592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:24" ht="13.5">
+    <row r="249" spans="1:26" ht="13.5">
       <c r="A249" s="1">
         <v>11460</v>
       </c>
@@ -5196,7 +5609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:24" ht="13.5">
+    <row r="250" spans="1:26" ht="13.5">
       <c r="A250" s="1">
         <v>11468</v>
       </c>
@@ -5213,7 +5626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:24" ht="13.5">
+    <row r="251" spans="1:26" ht="13.5">
       <c r="A251" s="1">
         <v>10044</v>
       </c>
@@ -5230,7 +5643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="1:24" ht="13.5">
+    <row r="252" spans="1:26" ht="13.5">
       <c r="A252" s="1">
         <v>10052</v>
       </c>
@@ -5247,7 +5660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:24" ht="13.5">
+    <row r="253" spans="1:26" ht="13.5">
       <c r="A253" s="1">
         <v>11574</v>
       </c>
@@ -5264,7 +5677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:24" ht="13.5">
+    <row r="254" spans="1:26" ht="13.5">
       <c r="A254" s="1">
         <v>11582</v>
       </c>
@@ -5281,7 +5694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:24" ht="13.5">
+    <row r="255" spans="1:26" ht="13.5">
       <c r="A255" s="1">
         <v>14269</v>
       </c>
@@ -5298,7 +5711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="1:24" ht="13.5">
+    <row r="256" spans="1:26" ht="13.5">
       <c r="A256" s="1">
         <v>14277</v>
       </c>
@@ -5315,7 +5728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="1:24" ht="13.5">
+    <row r="257" spans="1:26" ht="13.5">
       <c r="A257" s="1">
         <v>15765</v>
       </c>
@@ -5332,7 +5745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="258" spans="1:24" ht="13.5">
+    <row r="258" spans="1:26" ht="13.5">
       <c r="A258" s="1">
         <v>15773</v>
       </c>
@@ -5349,7 +5762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:24" ht="13.5">
+    <row r="259" spans="1:26" ht="13.5">
       <c r="A259" s="1">
         <v>14349</v>
       </c>
@@ -5366,7 +5779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="260" spans="1:24" ht="13.5">
+    <row r="260" spans="1:26" ht="13.5">
       <c r="A260" s="1">
         <v>14357</v>
       </c>
@@ -5383,7 +5796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:24" ht="13.5">
+    <row r="261" spans="1:26" ht="13.5">
       <c r="A261" s="1">
         <v>15879</v>
       </c>
@@ -5400,7 +5813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:24" ht="13.5">
+    <row r="262" spans="1:26" ht="13.5">
       <c r="A262" s="1">
         <v>15887</v>
       </c>
@@ -5417,7 +5830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="263" spans="1:24" ht="13.5">
+    <row r="263" spans="1:26" ht="13.5">
       <c r="A263" s="1">
         <v>14285</v>
       </c>
@@ -5434,7 +5847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:24" ht="13.5">
+    <row r="264" spans="1:26" ht="13.5">
       <c r="A264" s="1">
         <v>14293</v>
       </c>
@@ -5451,7 +5864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:24" ht="13.5">
+    <row r="265" spans="1:26" ht="13.5">
       <c r="A265" s="1">
         <v>15781</v>
       </c>
@@ -5468,7 +5881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="1:24" ht="13.5">
+    <row r="266" spans="1:26" ht="13.5">
       <c r="A266" s="1">
         <v>15789</v>
       </c>
@@ -5485,7 +5898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:24" ht="13.5">
+    <row r="267" spans="1:26" ht="13.5">
       <c r="A267" s="1">
         <v>14365</v>
       </c>
@@ -5502,7 +5915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="1:24" ht="13.5">
+    <row r="268" spans="1:26" ht="13.5">
       <c r="A268" s="1">
         <v>14373</v>
       </c>
@@ -5519,7 +5932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="269" spans="1:24" ht="13.5">
+    <row r="269" spans="1:26" ht="13.5">
       <c r="A269" s="1">
         <v>15895</v>
       </c>
@@ -5536,7 +5949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="270" spans="1:24" ht="13.5">
+    <row r="270" spans="1:26" ht="13.5">
       <c r="A270" s="1">
         <v>15903</v>
       </c>
